--- a/xlsx/标准化_intext.xlsx
+++ b/xlsx/标准化_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E6%87%89%E5%95%86</t>
   </si>
   <si>
-    <t>供應商</t>
+    <t>供应商</t>
   </si>
   <si>
     <t>政策_政策_管理_标准化</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%88%B6%E5%BA%A6%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新制度經濟學</t>
+    <t>新制度经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>標準組織</t>
+    <t>标准组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%BD%93%E7%A8%8B%E5%BA%8F</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%A5%AD%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>同業公會</t>
+    <t>同业公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%96%AE%E4%BD%8D%E5%88%B6</t>
   </si>
   <si>
-    <t>國際單位制</t>
+    <t>国际单位制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E5%8C%96%E7%BB%84%E7%BB%87</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>製造商</t>
+    <t>制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>經濟體</t>
+    <t>经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/7.62%C3%9751_NATO</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>國際標準</t>
+    <t>国际标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E6%95%88%E5%BA%94</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%A0%BC%E5%BC%8F</t>
   </si>
   <si>
-    <t>開放格式</t>
+    <t>开放格式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%A0%87%E5%87%86</t>
